--- a/Ranking_worst_sources.xlsx
+++ b/Ranking_worst_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Documents\Redarbor_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099865AD-B9A6-4599-9FCD-8354B73B048E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7933CF38-572D-4E40-A66D-4A6A68743120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{46CF90B8-5A13-4CE3-9353-34520CE2E533}"/>
   </bookViews>
@@ -168,7 +168,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -216,7 +246,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB5346CF-862F-40E1-951F-A6458AD73B10}" name="Statistical_Summary" displayName="Statistical_Summary" ref="A1:O13" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:O13" xr:uid="{CB5346CF-862F-40E1-951F-A6458AD73B10}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{26C20CCC-4CE5-4A9B-9FFB-C983F77BF4D7}" uniqueName="1" name="source" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{26C20CCC-4CE5-4A9B-9FFB-C983F77BF4D7}" uniqueName="1" name="source" queryTableFieldId="1" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{EA844CFB-13C0-461D-922E-F5C4CA515EA6}" uniqueName="2" name="Mean_Ratio" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{E6C7CFCA-BF5B-4E9E-B654-93132731A961}" uniqueName="3" name="Standard_Deviation_Ratio" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{49C0791A-2F93-4AE5-9625-8070DF00814A}" uniqueName="4" name="Variance_Ratio" queryTableFieldId="4"/>
@@ -229,7 +259,7 @@
     <tableColumn id="11" xr3:uid="{B507E43E-AE3D-4F54-A6EF-D71045A3351A}" uniqueName="11" name="Users" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{9384D523-148D-4A77-80C4-5285314F6720}" uniqueName="12" name="bad" queryTableFieldId="12"/>
     <tableColumn id="13" xr3:uid="{7D58C96E-2FD1-4F30-8D59-51F72117B32D}" uniqueName="13" name="good" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{DCFAFBDB-BB28-4A96-8FCA-9924AD9C123E}" uniqueName="14" name="Ratio_wo_source" queryTableFieldId="14" dataDxfId="0">
+    <tableColumn id="14" xr3:uid="{DCFAFBDB-BB28-4A96-8FCA-9924AD9C123E}" uniqueName="14" name="Ratio_wo_source" queryTableFieldId="14" dataDxfId="3">
       <calculatedColumnFormula>($L$2-L2)/($M$2-M2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" xr3:uid="{A423AF96-820A-4F43-8162-ECD865EF886D}" uniqueName="15" name="Ranking_Worst" queryTableFieldId="15">
@@ -540,7 +570,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,6 +1220,14 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="N2:N13">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>$B$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>$B$2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
